--- a/SoftwareDesignUsingNLP/data/Healthcare Data/DataElements.xlsx
+++ b/SoftwareDesignUsingNLP/data/Healthcare Data/DataElements.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Dataelements" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -180,9 +180,6 @@
     <t>DE25</t>
   </si>
   <si>
-    <t>Patient name will be used for contacting, patient admission, make payments, for validating user etc</t>
-  </si>
-  <si>
     <t>IT provides the name of the doctor for adding him to payroll or as visiting doctor. It can also be used to schedule visit of patient</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Patient name will be used for contacting, patient admission, contacting doctor, . This is part of demographic information and will be used for modes of communication for offering plan</t>
   </si>
   <si>
-    <t xml:space="preserve">This provides information regarding the health tips and few preventive care like flue shots etc. This is based on coverage plan </t>
-  </si>
-  <si>
     <t>The element deals with the department to which patient is getting admitted. This can be used for scheduling a doctor visit and recruting doctors.</t>
   </si>
   <si>
@@ -253,6 +247,12 @@
   </si>
   <si>
     <t>This is the time based on availability of doctor and will be used for scheduling an appointment</t>
+  </si>
+  <si>
+    <t>Patient name will be used for contacting, patient admission, patient transfer, make payments, for validating user etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This provides information regarding the health tips and few preventive care like flue shots before and after patient transfer. This is based on coverage plan </t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -882,7 +882,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
